--- a/regular_expression_grammar.xlsx
+++ b/regular_expression_grammar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimseungkyu/Documents/크롤링/regular_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E223C83A-921D-2549-9A3A-C1B2F92BAE73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8257DD3-33AC-B94E-9FB7-DCFB7511B644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16420" activeTab="6" xr2:uid="{2B382D4D-06B8-FD47-B6E7-33A53056AE65}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="11" xr2:uid="{2B382D4D-06B8-FD47-B6E7-33A53056AE65}"/>
   </bookViews>
   <sheets>
     <sheet name="^" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,12 @@
     <sheet name="carrot_wrong_usag" sheetId="4" r:id="rId4"/>
     <sheet name="carrot_reverse_slash_usage" sheetId="5" r:id="rId5"/>
     <sheet name="reverse_slash_dollor" sheetId="6" r:id="rId6"/>
-    <sheet name="point" sheetId="7" r:id="rId7"/>
+    <sheet name="dot" sheetId="7" r:id="rId7"/>
+    <sheet name="dot_back_slash" sheetId="8" r:id="rId8"/>
+    <sheet name="square_bracket" sheetId="9" r:id="rId9"/>
+    <sheet name="sqaure_bracket_carot" sheetId="10" r:id="rId10"/>
+    <sheet name="subpattern" sheetId="11" r:id="rId11"/>
+    <sheet name="수량자" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,21 +45,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>who is who</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>^who</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>first_match</t>
   </si>
   <si>
     <t>first_match</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,7 +85,7 @@
       </rPr>
       <t xml:space="preserve"> is who</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -106,11 +111,11 @@
       </rPr>
       <t>is who</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>who$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -128,25 +133,25 @@
       </rPr>
       <t>who</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>all_match</t>
   </si>
   <si>
     <t>all_match</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>$12$\-\$25$</t>
   </si>
   <si>
     <t>$12$\-\$25$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>\$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -171,7 +176,7 @@
       </rPr>
       <t>12$\-\$25$</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -251,11 +256,11 @@
       </rPr>
       <t>$</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>^$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -275,11 +280,11 @@
   </si>
   <si>
     <t>noting to be selected.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>^\$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -356,11 +361,11 @@
       </rPr>
       <t>$</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>\$$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -395,15 +400,15 @@
       </rPr>
       <t>$</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Regular expressions are powerful!!!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -428,22 +433,2166 @@
       </rPr>
       <t>egular expressions are powerful!!!</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Regula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r expressions are powerful!!!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Regular expressions are powerf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ul!!!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.K.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.K.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\..\.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_matches</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[oyu]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[dH]. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> you do?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>w do you do?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">w </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[owy][yow]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> do you do?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>yo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>u do?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C-K]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CDEFGHIJK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C-Ka-d2-6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CDEFGHIJK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LMNOPQRSTUVWXYZ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>abcd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>efghijklmnopqrstuvwxyz1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>23456</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>78</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[^C-K]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>AB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CDEFGHIJK</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>LMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[^C-Ka-d2-6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>AB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CDEFGHIJK</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>LMNOPQRSTUVWXYZ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>abcd</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>efghijklmnopqrstuvwxyz1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>23456</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>78</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(on|ues|rida)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>day T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>day F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>rida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">day </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Tuesday Friday</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Mon|Tues|Fri)day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Monday </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Tuesday Friday</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Monday Tuesday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Friday</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>..(nd|esd|id)ay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a*b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>aab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>aab</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>c abc bc</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b를 기준으로 앞에 (없어도 된다 | 무한)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a+b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>aab</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>c bc</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a?b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>c abc bc</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b를 기준으로 앞에 (없어도 된다 | 한개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b를 기준으로 앞에 (있어야 된다 | 무한)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>definition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.{5}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.의 의미는 모든 문자{5}의 의미는 5개. 즉, "어떤 문자던 5개"를 의미한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="double"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>One r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ing to bring them all and in the darkness bind them. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>One ring to bring them all and in the darkness bind the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">m. 
+'m'이 선택되지 않은 이유는 5개씩 문자를 끊었을때 'e'에서 끝나기 때문이다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[els]{1,3}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e 또는 l 또는 s가 1개 이상 3개 이하로 등장했을때 매칭이 된다.'라는 뜻.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>On</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to bring th</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and in th</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> darkn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss bind th</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">m. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[a-z]{3,}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{3,}에서 콤마 뒤에 아무 숫자를 쓰지 않은 이유는 3 이후 몇개가 오던 상관이 없다는 의미다. 즉, a부터z까지 3개 이상의 알파벳으로 묶인 단어를 의미한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>On</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ring to bring them all and in the darkness bind them. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">One </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ring to bring them all and in the darkness bind them. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>One</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ring</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>bring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>them</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>darkness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>them</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB*A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>AA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ABA ABBA ABBBA</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>AA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABBA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABBBA</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB+A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A와A사이에 B가 1개 이상 와야한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A와A사이에 B가 0개 이상 와야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABBA ABBBA</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABBA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ABBBA</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,6 +2650,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u val="double"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -530,26 +2761,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -904,7 +3156,268 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD9F881-7DB4-B94D-8429-65A285A1BB40}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.28515625" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="76">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="76">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564E0066-7E6E-FF45-8F35-01DB5BD668E4}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30E2003-445B-0447-9726-0A35F14A687D}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1"/>
+    <col min="2" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="38">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="38">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="38">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="76">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="95">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="38">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38">
+      <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -951,7 +3464,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -997,7 +3510,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1048,7 +3561,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1094,7 +3607,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1140,17 +3653,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4BCEF3-BBE9-5C4F-B4DA-6916CC8413C3}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.28515625" defaultRowHeight="18"/>
@@ -1158,34 +3671,187 @@
     <col min="1" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76">
+    <row r="1" spans="1:3" ht="38">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:3" ht="19">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="38">
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="38">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="38">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EF6623-15DB-4F49-B58B-B42CA036FD2B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219A1364-6B91-0244-888F-71538151B2A6}">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="19">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="76">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="76">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/regular_expression_grammar.xlsx
+++ b/regular_expression_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimseungkyu/Documents/크롤링/regular_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8257DD3-33AC-B94E-9FB7-DCFB7511B644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9572D0-089A-3647-8BE1-AB293AF14996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="11" xr2:uid="{2B382D4D-06B8-FD47-B6E7-33A53056AE65}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="125">
   <si>
     <t>who is who</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2584,6 +2584,540 @@
         <scheme val="minor"/>
       </rPr>
       <t>ABBBA</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB{0,}A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB{1,}A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB?A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A와A사이에B가 0개 또는 1개가 와야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB{0,1}A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A와A사이에 B가 0개 또는 1개가 와야한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>AA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABBA ABBBA</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>AA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ABBA ABBBA</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.*?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.+?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.??</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r다음 어떤 문자던 0개에서 무한개가 올 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r다음 어떤 문자던 0개가 와야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r다음 어떤 문자던 1개가 와야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r다음 문자가 0개 또는 1개가 와야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r다음 문자가 0개가 와야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">one ring to bring them all and in the darkness bind them. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ring to bring them all and in the darkness bind them</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r다음 어떤 문자던 1개 이상이 와야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ring to bring them all and in the darkness bind them. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> to bring them all and in the darkness bind them. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">to bring them all and in the darkness bind them. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng to b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng them all and in the da</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>rk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ness bind them. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>to b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ing them all and in the da</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">kness bind them. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">to bring them all and in the darkness bind them. </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2739,12 +3273,30 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2761,7 +3313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2802,6 +3354,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3276,16 +3843,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30E2003-445B-0447-9726-0A35F14A687D}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="114" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1"/>
-    <col min="2" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.7109375" style="1"/>
   </cols>
@@ -3389,31 +3957,171 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="38">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38">
+      <c r="A10" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="16" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38">
+      <c r="A11" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38">
+      <c r="A12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38">
+      <c r="A13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="38">
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="44" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="52" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="38">
+      <c r="A18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="38">
+      <c r="A19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
